--- a/Data/Data Sander.xlsx
+++ b/Data/Data Sander.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isamu\Desktop\HvA Werk\Sander Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919BCF8-7610-4B4B-8111-D44BCE90C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57095C19-9191-408A-8F43-FA6E8D04940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="139">
   <si>
     <t>Bedrijf</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Bedrijventerrein</t>
   </si>
   <si>
-    <t>Werkt mee</t>
-  </si>
-  <si>
     <t>Vragenlijst</t>
   </si>
   <si>
@@ -430,6 +427,18 @@
   </si>
   <si>
     <t>Circular Avenue 2, 2133 LB Hoofddorp</t>
+  </si>
+  <si>
+    <t>Kwaliteit data</t>
+  </si>
+  <si>
+    <t>Zilver</t>
+  </si>
+  <si>
+    <t>Brons</t>
+  </si>
+  <si>
+    <t>Goud</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1282,7 @@
   <dimension ref="A1:AV31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,159 +1341,159 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>42</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1531,28 +1540,28 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3">
         <v>40</v>
@@ -1602,22 +1611,22 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4">
         <v>16</v>
@@ -1634,22 +1643,22 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5">
         <v>20</v>
@@ -1663,22 +1672,22 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1692,28 +1701,28 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1757,28 +1766,28 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1828,48 +1837,48 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1925,28 +1934,28 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -2059,22 +2068,22 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <v>40</v>
@@ -2085,28 +2094,28 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
       <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13">
         <v>75</v>
@@ -2165,28 +2174,28 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
       <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -2269,42 +2278,42 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
       <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2318,22 +2327,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2350,22 +2359,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>15</v>
@@ -2379,22 +2388,22 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19">
         <v>12</v>
@@ -2405,22 +2414,22 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>50</v>
@@ -2431,222 +2440,222 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
         <v>129</v>
       </c>
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
         <v>122</v>
       </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
         <v>124</v>
       </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
         <v>132</v>
       </c>
-      <c r="B31" t="s">
-        <v>133</v>
-      </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2667,40 +2676,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2758,25 +2767,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
